--- a/Data/modified_parameters_scenario_3/Energy_and_Carbon_TEK_and_Renovation_and_Lifestyle.xlsx
+++ b/Data/modified_parameters_scenario_3/Energy_and_Carbon_TEK_and_Renovation_and_Lifestyle.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954e9104582efe7e/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/954e9104582efe7e/Documents/Python/TEP4290_project/data/modified_parameters_scenario_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="61" documentId="8_{D91E356B-22E3-4F53-9A07-DD2265B331AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{438B1DD8-8DED-499C-96C3-EAF92EC694C0}"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D452"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="D452" sqref="A2:D452"/>
+      <selection activeCell="C451" sqref="C451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19265,7 +19265,7 @@
         <v>95.039999999999992</v>
       </c>
       <c r="C428" s="1">
-        <f t="shared" ref="C428:D453" si="1">65.8*0.9</f>
+        <f t="shared" ref="C428:D452" si="1">65.8*0.9</f>
         <v>59.22</v>
       </c>
       <c r="D428" s="1">
